--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT03_Metabolites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D095AE0-4E76-2045-B4C4-48BEDE6CEBBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6D4C4-9DFD-094A-96A3-347D501EF8AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="26720" windowHeight="15940" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="-3600" yWindow="-20860" windowWidth="28700" windowHeight="21100" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dominik Brilhaus</author>
+  </authors>
+  <commentList>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{072BB714-77BB-C94B-A32D-E030BEA14436}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominik Brilhaus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cv: controlled vocabulary
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">m: mandatory 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">o: optional (can be mapped)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n: not required (cannot be mapped)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Source Name</t>
   </si>
@@ -85,6 +158,123 @@
   </si>
   <si>
     <t>Term Accession Number [microgram] (#h; #tUO:0000023; #u)</t>
+  </si>
+  <si>
+    <t>SWATE annotation table</t>
+  </si>
+  <si>
+    <t>Content examples</t>
+  </si>
+  <si>
+    <t>Semantic Modelling</t>
+  </si>
+  <si>
+    <t>Term Name</t>
+  </si>
+  <si>
+    <t>Term Accession Number (TAN)</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>is_a</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>Content type (Validation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: </t>
+  </si>
+  <si>
+    <t>ER target term</t>
+  </si>
+  <si>
+    <t>ER requirement (cv/m/o/n)</t>
+  </si>
+  <si>
+    <t>Importance (0-5)</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>User instruction</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>ER METABOLIGHTS_METABOLOMICS</t>
+  </si>
+  <si>
+    <t>RNA (Transcriptomics)</t>
+  </si>
+  <si>
+    <t>DNA (Genomics)</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>Methanol:Chloroform:Water</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>1:1:1 methanol:chloroform:isopropanol</t>
+  </si>
+  <si>
+    <t>methanol:acetonitrile:water,40/40/20 (v/v/v)</t>
+  </si>
+  <si>
+    <t>MCA (Methanol:Chloroform:2%acetate=5:2:1)</t>
+  </si>
+  <si>
+    <t>250 microliter</t>
+  </si>
+  <si>
+    <t>1000 microliter</t>
+  </si>
+  <si>
+    <t>Bio entity</t>
+  </si>
+  <si>
+    <t>Biosource amount</t>
+  </si>
+  <si>
+    <t>Extraction buffer</t>
+  </si>
+  <si>
+    <t>Extraction buffer volume</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000013</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000050</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000051</t>
+  </si>
+  <si>
+    <t>Unit: microgram</t>
   </si>
 </sst>
 </file>
@@ -95,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,8 +301,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +360,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4FB3D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF377D98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,19 +450,64 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B40B955E-1452-134F-8253-D50D28A6309D}"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -212,24 +526,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="A2:T3" totalsRowShown="0">
-  <autoFilter ref="A2:T3" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="C2:V3" totalsRowShown="0">
+  <autoFilter ref="C2:V3" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{3998B63E-8A32-8B43-A9F8-6B28BA709419}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{B0972144-49CE-1D49-B224-1CC170522482}" name="Sample Name"/>
     <tableColumn id="3" xr3:uid="{77AF736E-56D5-7F44-A162-A7D79B145D0A}" name="Parameter [Bio entity]" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{5AFF8057-B228-184D-957B-38ADC417EEC9}" name="Term Source REF [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
     <tableColumn id="5" xr3:uid="{A24CE6BE-0369-E64C-BAC0-E00C061D43E7}" name="Term Accession Number [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
-    <tableColumn id="6" xr3:uid="{E1ADB4C9-3F18-7A4B-9E3D-7EC6E004F32D}" name="Parameter [Biosource amount]" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{E1ADB4C9-3F18-7A4B-9E3D-7EC6E004F32D}" name="Parameter [Biosource amount]" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{493F6E04-5CE7-5246-BB0D-91442E111E87}" name="Term Source REF [Biosource amount] (#h; #tNFDI4PSO:0000013)"/>
     <tableColumn id="8" xr3:uid="{5FEEE5BD-D15D-9348-B37F-A958A19A55CB}" name="Term Accession Number [Biosource amount] (#h; #tNFDI4PSO:0000013)"/>
     <tableColumn id="18" xr3:uid="{305FF980-E111-FF46-AF42-5DD9F03116E9}" name="Unit [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="19" xr3:uid="{957B0452-8A50-8341-95AC-800254CDEF5C}" name="Term Source REF [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="20" xr3:uid="{22B23873-D79F-7846-92D1-0D9334B913E8}" name="Term Accession Number [microgram] (#h; #tUO:0000023; #u)"/>
-    <tableColumn id="9" xr3:uid="{B43D5B8F-36C5-5D43-ABCD-34BA91C8BFA0}" name="Parameter [Extraction buffer]" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B43D5B8F-36C5-5D43-ABCD-34BA91C8BFA0}" name="Parameter [Extraction buffer]" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{2D020EA2-7A97-5044-9CFC-4ACFB6D2C914}" name="Term Source REF [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
     <tableColumn id="11" xr3:uid="{16B4A7CE-8B30-084E-9625-081F90B2C059}" name="Term Accession Number [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
-    <tableColumn id="12" xr3:uid="{10AF58E4-15A1-F344-AC18-924EF5AFE263}" name="Parameter [Extraction buffer volume]" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{10AF58E4-15A1-F344-AC18-924EF5AFE263}" name="Parameter [Extraction buffer volume]" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{9C138AE8-01A3-644C-A8FB-4F1AE6122738}" name="Term Source REF [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
     <tableColumn id="14" xr3:uid="{776BA372-248E-A346-9560-AC99C0025955}" name="Term Accession Number [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
     <tableColumn id="15" xr3:uid="{62EB9B8C-50C0-6846-8385-0ECF0EEA3C7A}" name="Unit [microliter] (#h; #tUO:0000101; #u)"/>
@@ -554,41 +868,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="61.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="68.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="41.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="53.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="59.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="68.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="69.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="75.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="58.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" style="30" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" style="30" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.33203125" style="30" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="68.6640625" style="30" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="41.5" style="30" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="53.33203125" style="30" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="59.83203125" style="30" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="41.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.83203125" style="30" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="68.1640625" style="30" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.1640625" style="30" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="75.6640625" style="30" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="40.5" style="30" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="52.33203125" style="30" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="58.5" style="30" hidden="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -605,80 +924,850 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="L3" s="3"/>
-      <c r="O3" s="5"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="6"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="5"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT03_Metabolites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E52F0-29D0-3849-AB12-1849B99383F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384BF54A-0A77-4FAB-A8E6-AD15F5363CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-21100" windowWidth="28700" windowHeight="21100" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Source Name</t>
   </si>
@@ -257,6 +266,24 @@
   </si>
   <si>
     <t>Comments towards the original template author</t>
+  </si>
+  <si>
+    <t>The name of the output of this assay</t>
+  </si>
+  <si>
+    <t>User instruction missing</t>
+  </si>
+  <si>
+    <t>The buffer used to extract the substance from the sample.</t>
+  </si>
+  <si>
+    <t>The amount of extraction buffer applied.</t>
+  </si>
+  <si>
+    <t>Do we want to give a unit? If yes, which one?</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,10 +555,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B40B955E-1452-134F-8253-D50D28A6309D}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -583,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,39 +948,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="61.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="68.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.125" style="22" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="61.375" style="22" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.375" style="22" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="68.625" style="22" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="41.5" style="22" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="53.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="59.83203125" style="22" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="41.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.83203125" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="68.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="53.375" style="22" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="59.875" style="22" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="41.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.875" style="22" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="68.125" style="22" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="75.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="69.125" style="22" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="75.625" style="22" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="40.5" style="22" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="52.375" style="22" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="58.5" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="22"/>
+    <col min="24" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -960,7 +1012,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1027,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -1054,7 +1106,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1079,7 +1131,7 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -1112,7 +1164,7 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -1145,7 +1197,7 @@
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
@@ -1176,7 +1228,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
@@ -1207,7 +1259,7 @@
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1236,7 +1288,7 @@
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1315,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1288,7 +1340,7 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
@@ -1327,7 +1379,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
@@ -1366,7 +1418,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
     </row>
-    <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -1397,7 +1449,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
     </row>
-    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
@@ -1409,10 +1461,14 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1428,7 +1484,7 @@
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
@@ -1438,32 +1494,34 @@
       <c r="C16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="35" t="s">
-        <v>32</v>
+      <c r="D16" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
-        <v>48</v>
-      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
+      <c r="O16" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
@@ -1492,7 +1550,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
     </row>
-    <row r="18" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +1581,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
@@ -1554,7 +1612,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
@@ -1583,7 +1641,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
@@ -1593,10 +1651,14 @@
       <c r="C21" s="34"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -1605,14 +1667,16 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="R21" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1637,7 +1701,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1662,7 +1726,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" spans="1:23" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1757,7 @@
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:23" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1788,7 @@
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="1:23" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>27</v>
       </c>
@@ -1755,7 +1819,7 @@
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
     </row>
-    <row r="27" spans="1:23" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>27</v>
       </c>
@@ -1786,7 +1850,7 @@
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" spans="1:23" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -1817,7 +1881,7 @@
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" spans="1:23" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
@@ -1848,7 +1912,7 @@
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT03_Metabolites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384BF54A-0A77-4FAB-A8E6-AD15F5363CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3EEEC-69C2-400E-A875-408EC6ED9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>Source Name</t>
   </si>
@@ -284,6 +284,36 @@
   </si>
   <si>
     <t>The name of the input (the source) of this assay.</t>
+  </si>
+  <si>
+    <t>Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular source (a batch of samples can have a unique Sample name as identified in the Sample table). It’s usually associated with an output spectral data filename.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Post Extraction</t>
+  </si>
+  <si>
+    <t>This how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Extract Name</t>
+  </si>
+  <si>
+    <t>Leave blank if you don’t have one.</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -294,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +386,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -451,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +610,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,9 +650,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="D2:W3" totalsRowShown="0">
-  <autoFilter ref="D2:W3" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="D2:Y3" totalsRowShown="0">
+  <autoFilter ref="D2:Y3" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{3998B63E-8A32-8B43-A9F8-6B28BA709419}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{B0972144-49CE-1D49-B224-1CC170522482}" name="Sample Name"/>
     <tableColumn id="3" xr3:uid="{77AF736E-56D5-7F44-A162-A7D79B145D0A}" name="Parameter [Bio entity]" dataDxfId="3"/>
@@ -626,6 +673,8 @@
     <tableColumn id="15" xr3:uid="{62EB9B8C-50C0-6846-8385-0ECF0EEA3C7A}" name="Unit [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="16" xr3:uid="{72DC9DFD-4689-034A-BBD8-638D9FD59658}" name="Term Source REF [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="17" xr3:uid="{DA5CEEFD-FC2F-5F4E-92BF-2EDE31FDC7EF}" name="Term Accession Number [microliter] (#h; #tUO:0000101; #u)"/>
+    <tableColumn id="22" xr3:uid="{BEB1A7F9-A26B-4E29-B74D-C938D021193B}" name="Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
+    <tableColumn id="23" xr3:uid="{8028DB47-142F-4FD8-BC4F-2CD8CA277263}" name="Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,7 +977,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="549" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -946,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -960,30 +1009,32 @@
     <col min="1" max="1" width="22.5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.125" style="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="61.375" style="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.375" style="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="68.625" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="41.5" style="22" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="53.375" style="22" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="59.875" style="22" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="41.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.875" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="68.125" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.125" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="75.625" style="22" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="40.5" style="22" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="52.375" style="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="58.5" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="22"/>
+    <col min="4" max="4" width="42.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.125" style="22" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="58.875" style="22" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.625" style="22" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="66.375" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="39.375" style="22" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="50.25" style="22" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="57" style="22" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="50.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.375" style="22" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="65.25" style="22" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="39.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="65.625" style="22" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="72.375" style="22" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="38.625" style="22" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="49.5" style="22" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="56.25" style="22" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="58.875" style="22" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="65.75" style="22" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -1010,9 +1061,11 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1078,8 +1131,14 @@
       <c r="W2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -1105,8 +1164,10 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1131,7 +1192,7 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -1164,7 +1225,7 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -1197,7 +1258,7 @@
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
@@ -1228,7 +1289,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
@@ -1259,7 +1320,7 @@
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1349,7 @@
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
@@ -1309,13 +1370,8 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1334,13 +1390,13 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
@@ -1373,13 +1429,13 @@
       <c r="R12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
@@ -1412,13 +1468,13 @@
       <c r="R13" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -1449,7 +1505,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
@@ -1484,7 +1540,7 @@
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
@@ -1726,7 +1782,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" spans="1:23" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>27</v>
       </c>
@@ -1736,8 +1792,12 @@
       <c r="C24" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1747,7 +1807,9 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="O24" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
@@ -1757,7 +1819,7 @@
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>27</v>
       </c>
@@ -1767,8 +1829,12 @@
       <c r="C25" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>90</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -1778,7 +1844,9 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
@@ -1788,7 +1856,7 @@
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>27</v>
       </c>
@@ -1798,8 +1866,12 @@
       <c r="C26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -1809,7 +1881,9 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="O26" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
@@ -1819,7 +1893,7 @@
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
     </row>
-    <row r="27" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>27</v>
       </c>
@@ -1829,8 +1903,12 @@
       <c r="C27" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>86</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -1840,7 +1918,9 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="O27" s="48" t="s">
+        <v>86</v>
+      </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
@@ -1938,6 +2018,7 @@
       <c r="W30" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3EEEC-69C2-400E-A875-408EC6ED9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1E5F9-F0BD-42ED-82EB-34DFA05163F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
@@ -995,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1E5F9-F0BD-42ED-82EB-34DFA05163F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55D4122-9209-443D-B97C-4D74733282B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,7 @@
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:23" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="29" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>27</v>
       </c>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT03_Metabolites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT03_Metabolites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55D4122-9209-443D-B97C-4D74733282B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D90D7-848A-2645-B6CD-5342E0D75900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="-4440" yWindow="-20900" windowWidth="38400" windowHeight="21100" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>Source Name</t>
   </si>
@@ -108,9 +99,6 @@
     <t>ER target term</t>
   </si>
   <si>
-    <t>Additional information</t>
-  </si>
-  <si>
     <t>User instruction</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
   </si>
   <si>
     <t>SWATE_annotation_table</t>
-  </si>
-  <si>
-    <t>SWATE templating version (July 26, 2021)</t>
   </si>
   <si>
     <t>content_examples</t>
@@ -268,30 +253,12 @@
     <t>Comments towards the original template author</t>
   </si>
   <si>
-    <t>The name of the output of this assay</t>
-  </si>
-  <si>
-    <t>User instruction missing</t>
-  </si>
-  <si>
     <t>The buffer used to extract the substance from the sample.</t>
   </si>
   <si>
     <t>The amount of extraction buffer applied.</t>
   </si>
   <si>
-    <t>Do we want to give a unit? If yes, which one?</t>
-  </si>
-  <si>
-    <t>The name of the input (the source) of this assay.</t>
-  </si>
-  <si>
-    <t>Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)</t>
-  </si>
-  <si>
     <t>A unique identifier from a particular source (a batch of samples can have a unique Sample name as identified in the Sample table). It’s usually associated with an output spectral data filename.</t>
   </si>
   <si>
@@ -314,6 +281,24 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>Unit: Microliter</t>
+  </si>
+  <si>
+    <t>is_a term</t>
+  </si>
+  <si>
+    <t>Use to specify subclasses of existing terms</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
   </si>
 </sst>
 </file>
@@ -450,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -471,15 +456,6 @@
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -492,16 +468,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -596,9 +569,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -609,19 +579,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B40B955E-1452-134F-8253-D50D28A6309D}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -650,9 +625,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="D2:Y3" totalsRowShown="0">
-  <autoFilter ref="D2:Y3" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="D2:W3" totalsRowShown="0">
+  <autoFilter ref="D2:W3" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{3998B63E-8A32-8B43-A9F8-6B28BA709419}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{B0972144-49CE-1D49-B224-1CC170522482}" name="Sample Name"/>
     <tableColumn id="3" xr3:uid="{77AF736E-56D5-7F44-A162-A7D79B145D0A}" name="Parameter [Bio entity]" dataDxfId="3"/>
@@ -673,15 +648,13 @@
     <tableColumn id="15" xr3:uid="{62EB9B8C-50C0-6846-8385-0ECF0EEA3C7A}" name="Unit [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="16" xr3:uid="{72DC9DFD-4689-034A-BBD8-638D9FD59658}" name="Term Source REF [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="17" xr3:uid="{DA5CEEFD-FC2F-5F4E-92BF-2EDE31FDC7EF}" name="Term Accession Number [microliter] (#h; #tUO:0000101; #u)"/>
-    <tableColumn id="22" xr3:uid="{BEB1A7F9-A26B-4E29-B74D-C938D021193B}" name="Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
-    <tableColumn id="23" xr3:uid="{8028DB47-142F-4FD8-BC4F-2CD8CA277263}" name="Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -977,7 +950,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="549" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -995,82 +968,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.125" style="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="58.875" style="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="30.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.625" style="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="66.375" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="39.375" style="22" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="50.25" style="22" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="57" style="22" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="50.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.375" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="65.25" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="39.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.625" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="72.375" style="22" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="38.625" style="22" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="49.5" style="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="56.25" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="58.875" style="22" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="65.75" style="22" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="22"/>
+    <col min="1" max="1" width="22.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5" style="21" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="59.83203125" style="21" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61" style="21" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="51.83203125" style="21" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="58.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="50.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="60" style="21" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="66.1640625" style="21" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66.83203125" style="21" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="73.1640625" style="21" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="39.1640625" style="21" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="50.6640625" style="21" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="56.83203125" style="21" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
-        <v>50</v>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1131,871 +1100,863 @@
       <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="5"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" s="5"/>
+      <c r="R3" s="4"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="B16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+    </row>
+    <row r="26" spans="1:23" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="44" t="s">
+      <c r="E27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+      <c r="A28" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+      <c r="A29" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-    </row>
-    <row r="24" spans="1:23" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="48" t="s">
+      <c r="E29" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-    </row>
-    <row r="25" spans="1:23" s="29" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-    </row>
-    <row r="26" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-    </row>
-    <row r="27" spans="1:23" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="38" t="s">
+      <c r="C30" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-    </row>
-    <row r="28" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" spans="1:23" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -2016,6 +1977,62 @@
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT03_Metabolites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D90D7-848A-2645-B6CD-5342E0D75900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6015986-D2B2-4E0E-A001-C5B84B445611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4440" yWindow="-20900" windowWidth="38400" windowHeight="21100" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>Source Name</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>ER Additional information</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>will always be metabolites</t>
+  </si>
+  <si>
+    <t>Only field is given in the Metabolights table. After mapping, combine all "EXTRACTION - Post Extraction" information in one cell.</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -468,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,10 +608,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B40B955E-1452-134F-8253-D50D28A6309D}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -654,7 +675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -968,44 +989,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" style="21" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="59.83203125" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.875" style="21" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61" style="21" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="67.33203125" style="21" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" style="21" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="51.83203125" style="21" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="58.33203125" style="21" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="50.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.375" style="21" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.375" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="51.875" style="21" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="58.375" style="21" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="50.375" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="60" style="21" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="66.1640625" style="21" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="66.125" style="21" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="37" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="66.83203125" style="21" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="73.1640625" style="21" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="39.1640625" style="21" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="50.6640625" style="21" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="56.83203125" style="21" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="21"/>
+    <col min="19" max="19" width="66.875" style="21" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="73.125" style="21" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="39.125" style="21" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="50.625" style="21" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="56.875" style="21" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1055,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
@@ -1128,7 +1149,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1153,7 +1174,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1207,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>49</v>
       </c>
@@ -1219,7 +1240,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
@@ -1250,7 +1271,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -1281,7 +1302,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1331,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
@@ -1332,7 +1353,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1357,7 +1378,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
@@ -1396,7 +1417,7 @@
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1435,7 +1456,7 @@
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1466,7 +1487,7 @@
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>50</v>
       </c>
@@ -1503,7 +1524,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
@@ -1538,7 +1559,7 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
@@ -1567,7 +1588,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
@@ -1598,7 +1619,7 @@
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
     </row>
-    <row r="19" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
@@ -1629,7 +1650,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>59</v>
       </c>
@@ -1660,7 +1681,7 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>59</v>
       </c>
@@ -1691,7 +1712,7 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1741,7 @@
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -1749,7 +1770,7 @@
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1774,7 +1795,7 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -1799,7 +1820,7 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>26</v>
       </c>
@@ -1815,28 +1836,32 @@
       <c r="E26" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="50" t="s">
+        <v>79</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="44" t="s">
         <v>79</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="R26" s="50" t="s">
+        <v>79</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
-    <row r="27" spans="1:23" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>26</v>
       </c>
@@ -1852,28 +1877,32 @@
       <c r="E27" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="45" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="50" t="s">
+        <v>80</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
-    <row r="28" spans="1:23" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>26</v>
       </c>
@@ -1889,28 +1918,34 @@
       <c r="E28" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="45" t="s">
+      <c r="F28" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="1:23" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>26</v>
       </c>
@@ -1926,28 +1961,32 @@
       <c r="E29" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="45" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="1:23" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>26</v>
       </c>
@@ -1959,26 +1998,34 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
+      <c r="F30" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="50" t="s">
+        <v>92</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
     </row>
-    <row r="31" spans="1:23" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>26</v>
       </c>
@@ -2009,7 +2056,7 @@
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6015986-D2B2-4E0E-A001-C5B84B445611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4FAF9F-6AC0-4382-B768-A9B3F93D9B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="-19440" yWindow="-1920" windowWidth="19543" windowHeight="12497" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>Source Name</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>The amount of extraction buffer applied.</t>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source (a batch of samples can have a unique Sample name as identified in the Sample table). It’s usually associated with an output spectral data filename.</t>
   </si>
   <si>
     <t>m</t>
@@ -1032,7 +1029,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
@@ -1516,7 +1513,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -1655,10 +1652,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1686,10 +1683,10 @@
         <v>59</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1830,17 +1827,15 @@
       <c r="C26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="44" t="s">
-        <v>1</v>
-      </c>
+      <c r="D26" s="44"/>
       <c r="E26" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
       <c r="I26" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -1848,12 +1843,12 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
@@ -1871,17 +1866,15 @@
       <c r="C27" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>76</v>
-      </c>
+      <c r="D27" s="44"/>
       <c r="E27" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -1889,12 +1882,12 @@
       <c r="M27" s="44"/>
       <c r="N27" s="44"/>
       <c r="O27" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
       <c r="R27" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -1912,19 +1905,17 @@
       <c r="C28" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>77</v>
-      </c>
+      <c r="D28" s="44"/>
       <c r="E28" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
       <c r="I28" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
@@ -1932,12 +1923,12 @@
       <c r="M28" s="44"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -1955,17 +1946,15 @@
       <c r="C29" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>78</v>
-      </c>
+      <c r="D29" s="44"/>
       <c r="E29" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
       <c r="H29" s="50"/>
       <c r="I29" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -1973,12 +1962,12 @@
       <c r="M29" s="44"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -1991,7 +1980,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>72</v>
@@ -1999,12 +1988,12 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="50"/>
       <c r="H30" s="50"/>
       <c r="I30" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
@@ -2012,12 +2001,12 @@
       <c r="M30" s="44"/>
       <c r="N30" s="44"/>
       <c r="O30" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
       <c r="R30" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT03_Metabolites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CC41C-2C93-B141-B185-29A8F03EEE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4434C-E7C1-4BC7-866C-9DDAD45E05BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Source Name</t>
   </si>
@@ -174,15 +174,9 @@
     <t>ER Additional information</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>will always be metabolites</t>
   </si>
   <si>
-    <t>Only field is given in the Metabolights table. After mapping, combine all "EXTRACTION - Post Extraction" information in one cell.</t>
-  </si>
-  <si>
     <t>For info on filling, check template online</t>
   </si>
   <si>
@@ -190,6 +184,18 @@
   </si>
   <si>
     <t>templating_notes</t>
+  </si>
+  <si>
+    <t>Only Post Extraction is given in the Metabolights table. After mapping, concatenate  all "EXTRACTION - Post Extraction" information in one cell.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>This is  how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,12 +402,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,9 +411,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,12 +419,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -445,17 +430,26 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B40B955E-1452-134F-8253-D50D28A6309D}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -513,7 +507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -827,48 +821,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.5" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="59.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.875" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="51.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="58.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="50.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.375" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.375" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="51.875" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="58.375" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="50.375" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="66.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="66.125" style="14" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="73.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="50.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="56.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="14"/>
+    <col min="18" max="18" width="66.875" style="14" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="73.125" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.125" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="50.625" style="14" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="56.875" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>52</v>
+      <c r="B1" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -891,7 +885,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -957,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -983,54 +977,54 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="25"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="34"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="30"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="30" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="11"/>
@@ -1039,30 +1033,30 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="24" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="30" t="s">
         <v>34</v>
       </c>
       <c r="R6" s="11"/>
@@ -1071,220 +1065,220 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="35"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="24" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="35"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="29"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="25"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="26"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="36"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
@@ -1295,23 +1289,25 @@
       <c r="D15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="32" t="s">
+      <c r="E15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="33" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="38" t="s">
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="37" t="s">
         <v>43</v>
       </c>
       <c r="R15" s="11"/>
@@ -1320,7 +1316,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
@@ -1331,24 +1327,26 @@
       <c r="D16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="32" t="s">
+      <c r="E16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="38" t="s">
-        <v>44</v>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -1356,7 +1354,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1367,25 +1365,25 @@
       <c r="D17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="32" t="s">
+      <c r="E17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="33" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="38" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="37" t="s">
         <v>41</v>
       </c>
       <c r="R17" s="11"/>
@@ -1394,7 +1392,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>23</v>
       </c>
@@ -1405,23 +1403,25 @@
       <c r="D18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="32" t="s">
+      <c r="E18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="33" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="38" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="37" t="s">
         <v>42</v>
       </c>
       <c r="R18" s="11"/>
@@ -1430,7 +1430,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="16" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>23</v>
       </c>
@@ -1439,26 +1439,26 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="38" t="s">
-        <v>51</v>
+      <c r="E19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -1466,7 +1466,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
@@ -1475,43 +1475,43 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="26"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="35"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="29"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="25"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="34"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\2EXT03_Metabolites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4434C-E7C1-4BC7-866C-9DDAD45E05BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306E02B-A8E5-4F79-B434-92283C61B383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT03_Metabolites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT03_Metabolites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306E02B-A8E5-4F79-B434-92283C61B383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C143F-8BF2-6049-8AC3-FFA7CC92F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{682F0441-A0F7-6741-B76C-DF63FF53992B}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Source Name</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>Extraction</t>
   </si>
 </sst>
 </file>
@@ -447,9 +453,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B40B955E-1452-134F-8253-D50D28A6309D}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -478,11 +484,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="C2:V21" totalsRowShown="0">
-  <autoFilter ref="C2:V21" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2F4E0D-C0CD-5F4A-8873-824BF4046AF1}" name="annotationTable" displayName="annotationTable" ref="C2:W21" totalsRowShown="0">
+  <autoFilter ref="C2:W21" xr:uid="{B8CBCCDE-BB9A-1943-AF13-CF08D39F25EB}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3998B63E-8A32-8B43-A9F8-6B28BA709419}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{B0972144-49CE-1D49-B224-1CC170522482}" name="Sample Name"/>
+    <tableColumn id="21" xr3:uid="{B36C1C65-C25E-884C-A546-1BFA119D318F}" name="Protocol REF"/>
     <tableColumn id="3" xr3:uid="{77AF736E-56D5-7F44-A162-A7D79B145D0A}" name="Parameter [Bio entity]" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{5AFF8057-B228-184D-957B-38ADC417EEC9}" name="Term Source REF [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
     <tableColumn id="5" xr3:uid="{A24CE6BE-0369-E64C-BAC0-E00C061D43E7}" name="Term Accession Number [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
@@ -507,7 +514,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -821,43 +828,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE882A-09A3-2E4E-BDAD-167459C0EEF7}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="59.875" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="67.375" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.375" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="51.875" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="58.375" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="50.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="66.125" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.875" style="14" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="73.125" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39.125" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="50.625" style="14" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="56.875" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.875" style="14"/>
+    <col min="2" max="2" width="34.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="59.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="51.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="58.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="50.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="60" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="66.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="73.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="39.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="50.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="56.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -884,8 +892,9 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -897,308 +906,322 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="2"/>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3"/>
-      <c r="H3" s="5"/>
-      <c r="I3"/>
+      <c r="H3"/>
+      <c r="I3" s="5"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="2"/>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="O3" s="2"/>
       <c r="P3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3"/>
+      <c r="Q3"/>
+      <c r="R3" s="4"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="30"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>51</v>
       </c>
@@ -1207,26 +1230,27 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="24"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>52</v>
       </c>
@@ -1235,50 +1259,52 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
-    </row>
-    <row r="15" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
@@ -1289,34 +1315,35 @@
       <c r="D15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="35"/>
+      <c r="O15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="35"/>
       <c r="P15" s="35"/>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="35"/>
+      <c r="R15" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:22" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="W15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
@@ -1327,34 +1354,35 @@
       <c r="D16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="22"/>
+      <c r="O16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1365,34 +1393,35 @@
       <c r="D17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="22"/>
+      <c r="O17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="1:23" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>23</v>
       </c>
@@ -1403,34 +1432,35 @@
       <c r="D18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="22"/>
+      <c r="O18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-    </row>
-    <row r="19" spans="1:22" s="16" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:23" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>23</v>
       </c>
@@ -1439,34 +1469,35 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="22"/>
+      <c r="O19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="22"/>
       <c r="P19" s="22"/>
-      <c r="Q19" s="34" t="s">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-    </row>
-    <row r="20" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:23" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
@@ -1475,48 +1506,50 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="30"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="29"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD172309-D8AD-4C12-98DA-98473D47BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096FCD0F-3F36-4F10-A9AE-165EAB6029C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FFB6A9D9-6327-46CB-8451-A82E3FA89093}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=66b8fd18-dc96-4b67-8708-7697afbff11f</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Source Name</t>
   </si>
@@ -88,6 +109,117 @@
   </si>
   <si>
     <t>Term Accession Number (NFDI4PSO:0000051)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>66b8fd18-dc96-4b67-8708-7697afbff11f</t>
+  </si>
+  <si>
+    <t>Metabolite Extraction</t>
+  </si>
+  <si>
+    <t>Template to describe the extraction of metabolites for a metabolomics assay.</t>
+  </si>
+  <si>
+    <t>annotationTableShortBat73</t>
+  </si>
+  <si>
+    <t>METABOLIGHTS</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -98,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,19 +238,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -127,10 +367,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -180,6 +450,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{5AE5C1F1-800E-4B42-8E80-D145103132F9}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,9 +745,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:49:13.36" personId="{5AE5C1F1-800E-4B42-8E80-D145103132F9}" id="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:49:13.36" personId="{5AE5C1F1-800E-4B42-8E80-D145103132F9}" id="{A5AD5189-3E55-4C1E-A356-FC9291F7B114}" parentId="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
+    <text>id=66b8fd18-dc96-4b67-8708-7697afbff11f</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="620" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -589,4 +876,235 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC0D4D-AF39-4214-9D6D-E617BEC2CBA4}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableShortBat73">
+    <TableValidation DateTime="2021-11-03 16:49" SwateVersion="0.5.1" TableName="annotationTableShortBat73" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="9" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="12" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{764C5D03-775D-48B6-BFFE-89B9D6E81C92}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096FCD0F-3F36-4F10-A9AE-165EAB6029C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD46A21-2E2E-4417-9754-E290D34969DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>Source Name</t>
   </si>
@@ -220,6 +221,69 @@
   </si>
   <si>
     <t>1.1.5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000013</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000013</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000050</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000050</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000051</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
   </si>
 </sst>
 </file>
@@ -230,7 +294,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,12 +309,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -778,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1088,6 +1146,339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableShortBat73">

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD46A21-2E2E-4417-9754-E290D34969DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D3BD3-98AD-45BA-BEAF-F70A6DE63133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Source Name</t>
   </si>
@@ -284,6 +284,42 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Extract Name</t>
+  </si>
+  <si>
+    <t>Leave blank if you don’t have one.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>will always be metabolites</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Post Extraction</t>
+  </si>
+  <si>
+    <t>This is  how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Only Post Extraction is given in the Metabolights table. After mapping, concatenate  all "EXTRACTION - Post Extraction" information in one cell.</t>
+  </si>
+  <si>
+    <t>This how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
   </si>
 </sst>
 </file>
@@ -343,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -421,11 +457,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,6 +509,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1150,9 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1162,7 +1217,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1171,306 +1226,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="E5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="E6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>55</v>
       </c>
     </row>

--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D3BD3-98AD-45BA-BEAF-F70A6DE63133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A3C0E-4F62-4687-8C6F-A92E1D809E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>Source Name</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Dominik</t>
   </si>
   <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -320,6 +317,33 @@
   </si>
   <si>
     <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>RNA (Transcriptomics)</t>
+  </si>
+  <si>
+    <t>DNA (Genomics)</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Methanol:Chloroform:Water</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>1:1:1 methanol:chloroform:isopropanol</t>
+  </si>
+  <si>
+    <t>methanol:acetonitrile:water,40/40/20 (v/v/v)</t>
+  </si>
+  <si>
+    <t>MCA (Methanol:Chloroform:2%acetate=5:2:1)</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -330,7 +354,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +366,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,8 +504,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -517,7 +549,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0A4EB009-60C3-4315-A066-6A57075BD287}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -574,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18BDDE93-9651-4344-B601-67516A12E0A0}" name="annotationTableShortBat73" displayName="annotationTableShortBat73" ref="A1:Q2" totalsRowShown="0">
-  <autoFilter ref="A1:Q2" xr:uid="{18BDDE93-9651-4344-B601-67516A12E0A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18BDDE93-9651-4344-B601-67516A12E0A0}" name="annotationTableShortBat73" displayName="annotationTableShortBat73" ref="A1:Q6" totalsRowShown="0">
+  <autoFilter ref="A1:Q6" xr:uid="{18BDDE93-9651-4344-B601-67516A12E0A0}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00A92329-DDFA-46A7-928C-FBA6906B18C6}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{86A17EF5-82A2-4869-960D-B69138E1DB4E}" name="Protocol REF"/>
@@ -876,6 +909,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="617" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -889,9 +925,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1DF10FEB-15B4-4075-9764-52D56C61297A}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,17 +1019,104 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2">
+        <v>250</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,40 +1360,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1268,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1288,7 +1421,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1296,35 +1429,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1332,19 +1465,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1352,7 +1485,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1360,37 +1493,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1398,37 +1531,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="L6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1436,37 +1569,37 @@
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="L7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1474,37 +1607,37 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="L8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1515,12 +1648,12 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableShortBat73">
-    <TableValidation DateTime="2021-11-03 16:49" SwateVersion="0.5.1" TableName="annotationTableShortBat73" Userlist="">
+    <TableValidation DateTime="2021-12-13 19:11" SwateVersion="0.5.1" TableName="annotationTableShortBat73" Userlist="">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="None" ValidationFormat="UnitTerm microgram"/>
       <ColumnValidation ColumnAdress="9" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="12" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="12" ColumnHeader="Parameter [Extraction buffer volume]" Importance="4" Unit="None" ValidationFormat="UnitTerm microliter"/>
       <ColumnValidation ColumnAdress="16" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
@@ -1528,7 +1661,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{764C5D03-775D-48B6-BFFE-89B9D6E81C92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96784CF7-F692-430F-8FF0-09CA8F81FA38}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites/2EXT03_Metabolites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT03_Metabolites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A3C0E-4F62-4687-8C6F-A92E1D809E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C228C44-F160-4B33-A548-68509DBE24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>Source Name</t>
   </si>
@@ -325,15 +325,9 @@
     <t>DNA (Genomics)</t>
   </si>
   <si>
-    <t>Protein</t>
-  </si>
-  <si>
     <t>Methanol:Chloroform:Water</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
     <t>1:1:1 methanol:chloroform:isopropanol</t>
   </si>
   <si>
@@ -343,7 +337,40 @@
     <t>MCA (Methanol:Chloroform:2%acetate=5:2:1)</t>
   </si>
   <si>
-    <t>1.1.6</t>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000093</t>
+  </si>
+  <si>
+    <t>microgram</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
   </si>
 </sst>
 </file>
@@ -906,7 +933,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="688" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="617" row="2">
@@ -952,7 +979,7 @@
     <col min="7" max="7" width="7.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37" bestFit="1" customWidth="1"/>
@@ -1022,21 +1049,43 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M2" s="2">
         <v>250</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1045,21 +1094,43 @@
       <c r="C3" t="s">
         <v>88</v>
       </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="M3" s="2">
         <v>1000</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1068,55 +1139,115 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1160,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
